--- a/Projects/INBEVTRADMX/Data/inbevtradmx_template_10.xlsx
+++ b/Projects/INBEVTRADMX/Data/inbevtradmx_template_10.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,6 +17,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">template!$A$1:$V$73</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">template!$A$1:$V$73</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">template!$A$1:$V$73</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">template!$A$1:$V$73</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1027,41 +1028,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q72" activeCellId="0" sqref="Q72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="45.2244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="47.6530612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="41.3061224489796"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="36.5816326530612"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="81.5357142857143"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="58.8571428571429"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="99.4897959183674"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="117.30612244898"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="3" width="29.2908163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="24" style="3" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44.6836734693878"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="32.8010204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="47.1122448979592"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="40.765306122449"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="36.1785714285714"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="80.5918367346939"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="61.2857142857143"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="58.1836734693878"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="98.2755102040816"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="115.959183673469"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="3" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="24" style="3" width="7.56122448979592"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3256,7 +3257,7 @@
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="28" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
@@ -4324,7 +4325,7 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -5392,7 +5393,7 @@
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -6460,7 +6461,7 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -7528,7 +7529,7 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="28" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -8596,7 +8597,7 @@
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="35.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -9664,7 +9665,7 @@
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" s="21" customFormat="true" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="21" customFormat="true" ht="42" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="18" t="s">
         <v>37</v>
       </c>
@@ -9731,7 +9732,7 @@
       </c>
       <c r="W10" s="20"/>
     </row>
-    <row r="11" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="28" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>74</v>
       </c>
@@ -10799,7 +10800,7 @@
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
-    <row r="12" s="21" customFormat="true" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="21" customFormat="true" ht="28" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="18" t="s">
         <v>74</v>
       </c>
@@ -10866,7 +10867,7 @@
       </c>
       <c r="W12" s="20"/>
     </row>
-    <row r="13" s="21" customFormat="true" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="21" customFormat="true" ht="28" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="18" t="s">
         <v>74</v>
       </c>
@@ -10933,7 +10934,7 @@
       </c>
       <c r="W13" s="20"/>
     </row>
-    <row r="14" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="28" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>74</v>
       </c>
@@ -12001,7 +12002,7 @@
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="28" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>74</v>
       </c>
@@ -13069,7 +13070,7 @@
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="28" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
@@ -14137,7 +14138,7 @@
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="28" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
         <v>74</v>
       </c>
@@ -15205,7 +15206,7 @@
       <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>74</v>
       </c>
@@ -16273,7 +16274,7 @@
       <c r="AMI18" s="0"/>
       <c r="AMJ18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="28" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>74</v>
       </c>
@@ -17341,7 +17342,7 @@
       <c r="AMI19" s="0"/>
       <c r="AMJ19" s="0"/>
     </row>
-    <row r="20" s="23" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="23" customFormat="true" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="23" t="s">
         <v>74</v>
       </c>
@@ -17407,7 +17408,7 @@
       </c>
       <c r="W20" s="24"/>
     </row>
-    <row r="21" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="28" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
         <v>74</v>
       </c>
@@ -18475,7 +18476,7 @@
       <c r="AMI21" s="0"/>
       <c r="AMJ21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="28" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
         <v>74</v>
       </c>
@@ -19543,7 +19544,7 @@
       <c r="AMI22" s="0"/>
       <c r="AMJ22" s="0"/>
     </row>
-    <row r="23" s="17" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="17" customFormat="true" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="17" t="s">
         <v>123</v>
       </c>
@@ -19610,7 +19611,7 @@
       </c>
       <c r="W23" s="24"/>
     </row>
-    <row r="24" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="28" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>123</v>
       </c>
@@ -20678,7 +20679,7 @@
       <c r="AMI24" s="0"/>
       <c r="AMJ24" s="0"/>
     </row>
-    <row r="25" s="21" customFormat="true" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="21" customFormat="true" ht="28" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="18" t="s">
         <v>123</v>
       </c>
@@ -20745,7 +20746,7 @@
       </c>
       <c r="W25" s="20"/>
     </row>
-    <row r="26" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="28" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
         <v>123</v>
       </c>
@@ -21813,7 +21814,7 @@
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="28" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>123</v>
       </c>
@@ -22881,7 +22882,7 @@
       <c r="AMI27" s="0"/>
       <c r="AMJ27" s="0"/>
     </row>
-    <row r="28" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="28" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>123</v>
       </c>
@@ -23949,7 +23950,7 @@
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="28" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
         <v>123</v>
       </c>
@@ -25017,7 +25018,7 @@
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="28" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>123</v>
       </c>
@@ -26085,7 +26086,7 @@
       <c r="AMI30" s="0"/>
       <c r="AMJ30" s="0"/>
     </row>
-    <row r="31" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="28" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>127</v>
       </c>
@@ -27153,7 +27154,7 @@
       <c r="AMI31" s="0"/>
       <c r="AMJ31" s="0"/>
     </row>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>127</v>
       </c>
@@ -28221,7 +28222,7 @@
       <c r="AMI32" s="0"/>
       <c r="AMJ32" s="0"/>
     </row>
-    <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>127</v>
       </c>
@@ -29289,7 +29290,7 @@
       <c r="AMI33" s="0"/>
       <c r="AMJ33" s="0"/>
     </row>
-    <row r="34" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="28" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>127</v>
       </c>
@@ -30357,7 +30358,7 @@
       <c r="AMI34" s="0"/>
       <c r="AMJ34" s="0"/>
     </row>
-    <row r="35" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="28" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>127</v>
       </c>
@@ -31425,7 +31426,7 @@
       <c r="AMI35" s="0"/>
       <c r="AMJ35" s="0"/>
     </row>
-    <row r="36" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="28" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>127</v>
       </c>
@@ -32493,7 +32494,7 @@
       <c r="AMI36" s="0"/>
       <c r="AMJ36" s="0"/>
     </row>
-    <row r="37" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="28" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>127</v>
       </c>
@@ -33561,7 +33562,7 @@
       <c r="AMI37" s="0"/>
       <c r="AMJ37" s="0"/>
     </row>
-    <row r="38" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="28" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>127</v>
       </c>
@@ -34629,7 +34630,7 @@
       <c r="AMI38" s="0"/>
       <c r="AMJ38" s="0"/>
     </row>
-    <row r="39" s="21" customFormat="true" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" s="21" customFormat="true" ht="42" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="18" t="s">
         <v>127</v>
       </c>
@@ -34696,7 +34697,7 @@
       </c>
       <c r="W39" s="20"/>
     </row>
-    <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>135</v>
       </c>
@@ -35764,7 +35765,7 @@
       <c r="AMI40" s="0"/>
       <c r="AMJ40" s="0"/>
     </row>
-    <row r="41" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="28" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>135</v>
       </c>
@@ -36832,7 +36833,7 @@
       <c r="AMI41" s="0"/>
       <c r="AMJ41" s="0"/>
     </row>
-    <row r="42" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="28" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
         <v>135</v>
       </c>
@@ -37900,7 +37901,7 @@
       <c r="AMI42" s="0"/>
       <c r="AMJ42" s="0"/>
     </row>
-    <row r="43" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="28" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
         <v>135</v>
       </c>
@@ -38968,7 +38969,7 @@
       <c r="AMI43" s="0"/>
       <c r="AMJ43" s="0"/>
     </row>
-    <row r="44" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="28" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
         <v>135</v>
       </c>
@@ -40036,7 +40037,7 @@
       <c r="AMI44" s="0"/>
       <c r="AMJ44" s="0"/>
     </row>
-    <row r="45" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="28" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>135</v>
       </c>
@@ -41104,7 +41105,7 @@
       <c r="AMI45" s="0"/>
       <c r="AMJ45" s="0"/>
     </row>
-    <row r="46" s="21" customFormat="true" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" s="21" customFormat="true" ht="42" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="18" t="s">
         <v>135</v>
       </c>
@@ -41171,7 +41172,7 @@
       </c>
       <c r="W46" s="20"/>
     </row>
-    <row r="47" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>136</v>
       </c>
@@ -41216,8 +41217,8 @@
       <c r="P47" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q47" s="12" t="s">
-        <v>26</v>
+      <c r="Q47" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="R47" s="13" t="s">
         <v>26</v>
@@ -42237,7 +42238,7 @@
       <c r="AMI47" s="0"/>
       <c r="AMJ47" s="0"/>
     </row>
-    <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>136</v>
       </c>
@@ -42282,8 +42283,8 @@
       <c r="P48" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q48" s="12" t="s">
-        <v>26</v>
+      <c r="Q48" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="R48" s="13" t="s">
         <v>26</v>
@@ -43303,7 +43304,7 @@
       <c r="AMI48" s="0"/>
       <c r="AMJ48" s="0"/>
     </row>
-    <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>136</v>
       </c>
@@ -43350,8 +43351,8 @@
       <c r="P49" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q49" s="12" t="s">
-        <v>26</v>
+      <c r="Q49" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="R49" s="13" t="s">
         <v>26</v>
@@ -44371,7 +44372,7 @@
       <c r="AMI49" s="0"/>
       <c r="AMJ49" s="0"/>
     </row>
-    <row r="50" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
         <v>136</v>
       </c>
@@ -44418,8 +44419,8 @@
       <c r="P50" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q50" s="12" t="s">
-        <v>26</v>
+      <c r="Q50" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="R50" s="13" t="s">
         <v>26</v>
@@ -45439,7 +45440,7 @@
       <c r="AMI50" s="0"/>
       <c r="AMJ50" s="0"/>
     </row>
-    <row r="51" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
         <v>136</v>
       </c>
@@ -45487,7 +45488,7 @@
         <v>28</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R51" s="3" t="s">
         <v>26</v>
@@ -46507,7 +46508,7 @@
       <c r="AMI51" s="0"/>
       <c r="AMJ51" s="0"/>
     </row>
-    <row r="52" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
         <v>136</v>
       </c>
@@ -46555,7 +46556,7 @@
         <v>28</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>26</v>
@@ -47575,7 +47576,7 @@
       <c r="AMI52" s="0"/>
       <c r="AMJ52" s="0"/>
     </row>
-    <row r="53" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
         <v>136</v>
       </c>
@@ -47623,7 +47624,7 @@
         <v>28</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R53" s="3" t="s">
         <v>26</v>
@@ -48643,7 +48644,7 @@
       <c r="AMI53" s="0"/>
       <c r="AMJ53" s="0"/>
     </row>
-    <row r="54" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
         <v>136</v>
       </c>
@@ -48691,7 +48692,7 @@
         <v>28</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>26</v>
@@ -49711,7 +49712,7 @@
       <c r="AMI54" s="0"/>
       <c r="AMJ54" s="0"/>
     </row>
-    <row r="55" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>136</v>
       </c>
@@ -49758,8 +49759,8 @@
       <c r="P55" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q55" s="12" t="s">
-        <v>26</v>
+      <c r="Q55" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="R55" s="13" t="s">
         <v>26</v>
@@ -50779,7 +50780,7 @@
       <c r="AMI55" s="0"/>
       <c r="AMJ55" s="0"/>
     </row>
-    <row r="56" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>136</v>
       </c>
@@ -50826,8 +50827,8 @@
       <c r="P56" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q56" s="12" t="s">
-        <v>26</v>
+      <c r="Q56" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="R56" s="13" t="s">
         <v>26</v>
@@ -51847,7 +51848,7 @@
       <c r="AMI56" s="0"/>
       <c r="AMJ56" s="0"/>
     </row>
-    <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>136</v>
       </c>
@@ -51894,8 +51895,8 @@
       <c r="P57" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q57" s="12" t="s">
-        <v>26</v>
+      <c r="Q57" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="R57" s="13" t="s">
         <v>26</v>
@@ -52915,7 +52916,7 @@
       <c r="AMI57" s="0"/>
       <c r="AMJ57" s="0"/>
     </row>
-    <row r="58" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>136</v>
       </c>
@@ -52962,8 +52963,8 @@
       <c r="P58" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q58" s="12" t="s">
-        <v>26</v>
+      <c r="Q58" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="R58" s="13" t="s">
         <v>26</v>
@@ -53983,7 +53984,7 @@
       <c r="AMI58" s="0"/>
       <c r="AMJ58" s="0"/>
     </row>
-    <row r="59" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>136</v>
       </c>
@@ -54030,8 +54031,8 @@
       <c r="P59" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q59" s="13" t="s">
-        <v>26</v>
+      <c r="Q59" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="R59" s="13" t="s">
         <v>26</v>
@@ -55051,7 +55052,7 @@
       <c r="AMI59" s="0"/>
       <c r="AMJ59" s="0"/>
     </row>
-    <row r="60" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>136</v>
       </c>
@@ -55098,8 +55099,8 @@
       <c r="P60" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q60" s="13" t="s">
-        <v>26</v>
+      <c r="Q60" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="R60" s="13" t="s">
         <v>26</v>
@@ -56119,7 +56120,7 @@
       <c r="AMI60" s="0"/>
       <c r="AMJ60" s="0"/>
     </row>
-    <row r="61" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>136</v>
       </c>
@@ -56166,8 +56167,8 @@
       <c r="P61" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q61" s="13" t="s">
-        <v>26</v>
+      <c r="Q61" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="R61" s="13" t="s">
         <v>26</v>
@@ -57187,7 +57188,7 @@
       <c r="AMI61" s="0"/>
       <c r="AMJ61" s="0"/>
     </row>
-    <row r="62" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>136</v>
       </c>
@@ -57234,8 +57235,8 @@
       <c r="P62" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q62" s="13" t="s">
-        <v>26</v>
+      <c r="Q62" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="R62" s="13" t="s">
         <v>26</v>
@@ -58255,7 +58256,7 @@
       <c r="AMI62" s="0"/>
       <c r="AMJ62" s="0"/>
     </row>
-    <row r="63" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>136</v>
       </c>
@@ -58302,8 +58303,8 @@
       <c r="P63" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q63" s="13" t="s">
-        <v>26</v>
+      <c r="Q63" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="R63" s="13" t="s">
         <v>26</v>
@@ -59323,7 +59324,7 @@
       <c r="AMI63" s="0"/>
       <c r="AMJ63" s="0"/>
     </row>
-    <row r="64" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>136</v>
       </c>
@@ -59370,8 +59371,8 @@
       <c r="P64" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q64" s="13" t="s">
-        <v>26</v>
+      <c r="Q64" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="R64" s="13" t="s">
         <v>26</v>
@@ -60391,7 +60392,7 @@
       <c r="AMI64" s="0"/>
       <c r="AMJ64" s="0"/>
     </row>
-    <row r="65" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>136</v>
       </c>
@@ -60438,8 +60439,8 @@
       <c r="P65" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q65" s="13" t="s">
-        <v>26</v>
+      <c r="Q65" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="R65" s="13" t="s">
         <v>26</v>
@@ -61459,7 +61460,7 @@
       <c r="AMI65" s="0"/>
       <c r="AMJ65" s="0"/>
     </row>
-    <row r="66" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>136</v>
       </c>
@@ -61506,8 +61507,8 @@
       <c r="P66" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q66" s="13" t="s">
-        <v>26</v>
+      <c r="Q66" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="R66" s="13" t="s">
         <v>26</v>
@@ -62527,7 +62528,7 @@
       <c r="AMI66" s="0"/>
       <c r="AMJ66" s="0"/>
     </row>
-    <row r="67" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>136</v>
       </c>
@@ -62574,8 +62575,8 @@
       <c r="P67" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q67" s="13" t="s">
-        <v>26</v>
+      <c r="Q67" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="R67" s="13" t="s">
         <v>26</v>
@@ -63595,7 +63596,7 @@
       <c r="AMI67" s="0"/>
       <c r="AMJ67" s="0"/>
     </row>
-    <row r="68" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>136</v>
       </c>
@@ -63642,8 +63643,8 @@
       <c r="P68" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q68" s="13" t="s">
-        <v>26</v>
+      <c r="Q68" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="R68" s="13" t="s">
         <v>26</v>
@@ -64663,7 +64664,7 @@
       <c r="AMI68" s="0"/>
       <c r="AMJ68" s="0"/>
     </row>
-    <row r="69" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>136</v>
       </c>
@@ -64710,8 +64711,8 @@
       <c r="P69" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q69" s="13" t="s">
-        <v>26</v>
+      <c r="Q69" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="R69" s="13" t="s">
         <v>26</v>
@@ -65731,7 +65732,7 @@
       <c r="AMI69" s="0"/>
       <c r="AMJ69" s="0"/>
     </row>
-    <row r="70" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>136</v>
       </c>
@@ -65778,8 +65779,8 @@
       <c r="P70" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q70" s="13" t="s">
-        <v>26</v>
+      <c r="Q70" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="R70" s="13" t="s">
         <v>26</v>
@@ -66799,7 +66800,7 @@
       <c r="AMI70" s="0"/>
       <c r="AMJ70" s="0"/>
     </row>
-    <row r="71" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>136</v>
       </c>
@@ -66846,8 +66847,8 @@
       <c r="P71" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q71" s="13" t="s">
-        <v>26</v>
+      <c r="Q71" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="R71" s="13" t="s">
         <v>26</v>
@@ -67867,7 +67868,7 @@
       <c r="AMI71" s="0"/>
       <c r="AMJ71" s="0"/>
     </row>
-    <row r="72" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>136</v>
       </c>
@@ -67914,8 +67915,8 @@
       <c r="P72" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q72" s="13" t="s">
-        <v>26</v>
+      <c r="Q72" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="R72" s="13" t="s">
         <v>26</v>
@@ -68935,7 +68936,7 @@
       <c r="AMI72" s="0"/>
       <c r="AMJ72" s="0"/>
     </row>
-    <row r="73" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>136</v>
       </c>
@@ -68982,8 +68983,8 @@
       <c r="P73" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q73" s="13" t="s">
-        <v>26</v>
+      <c r="Q73" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="R73" s="13" t="s">
         <v>26</v>
@@ -70051,7 +70052,13 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:V73"/>
+  <autoFilter ref="A1:V73">
+    <filterColumn colId="15">
+      <customFilters and="true">
+        <customFilter operator="equal" val="MODELORAMA"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -70070,11 +70077,14 @@
   </sheetPr>
   <dimension ref="B2:E14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="8" t="s">
@@ -70194,11 +70204,14 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
